--- a/What to Eat Build Log.xlsx
+++ b/What to Eat Build Log.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Seth/GitHub/What to Eat/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Version</t>
   </si>
@@ -55,6 +60,12 @@
   </si>
   <si>
     <t>fixed not updating on open issue</t>
+  </si>
+  <si>
+    <t>b8fb000</t>
+  </si>
+  <si>
+    <t>added pull to update</t>
   </si>
 </sst>
 </file>
@@ -112,8 +123,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -126,6 +139,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,19 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -503,7 +522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -517,13 +536,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.1</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>6</v>
       </c>
@@ -535,15 +555,33 @@
       </c>
       <c r="G4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42325</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>